--- a/Python/Results Summary/Results_EI_NetZero_0_TrueREFERENCElTrans.xlsx
+++ b/Python/Results Summary/Results_EI_NetZero_0_TrueREFERENCElTrans.xlsx
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>13728.69047222979</v>
+        <v>11593.20167517985</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>13728.69047222979</v>
+        <v>11593.20167517985</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100620.0359350895</v>
+        <v>119209.451238778</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>100620.0359350895</v>
+        <v>119209.451238778</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>114348.7264073193</v>
+        <v>130802.6529139578</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>114348.7264073193</v>
+        <v>130802.6529139578</v>
       </c>
     </row>
   </sheetData>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>31669.7988568935</v>
+        <v>29466.16609431205</v>
       </c>
       <c r="E4">
-        <v>31669.7988568935</v>
+        <v>29466.16609431205</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>6756.943653180593</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6756.943653180593</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>548369.9683355999</v>
+        <v>702367.5017392782</v>
       </c>
       <c r="E6">
-        <v>548369.9683355999</v>
+        <v>702367.5017392782</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>396745.4114529595</v>
+        <v>437543.1057627271</v>
       </c>
       <c r="E7">
-        <v>396745.4114529595</v>
+        <v>437543.1057627271</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>149670.8030330393</v>
+        <v>95765.06541908396</v>
       </c>
       <c r="E8">
-        <v>149670.8030330393</v>
+        <v>95765.06541908396</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>43873.82977970999</v>
+        <v>84978.18708705938</v>
       </c>
       <c r="E9">
-        <v>43873.82977970999</v>
+        <v>84978.18708705938</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-2946.114807447328</v>
+        <v>-1610.612754083827</v>
       </c>
       <c r="E10">
-        <v>-2946.114807447328</v>
+        <v>-1610.612754083827</v>
       </c>
     </row>
   </sheetData>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>17923.26899321711</v>
+        <v>8219.671277085792</v>
       </c>
       <c r="E3">
-        <v>17923.26899321711</v>
+        <v>8219.671277085792</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>24812.92221298613</v>
+        <v>31230.60525781657</v>
       </c>
       <c r="E5">
-        <v>24812.92221298613</v>
+        <v>31230.60525781657</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.6237000000000003</v>
+        <v>0.7928999999999988</v>
       </c>
       <c r="E8">
-        <v>0.6237000000000003</v>
+        <v>0.7928999999999988</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>429.7044367339032</v>
+        <v>0.5930964000000001</v>
       </c>
       <c r="E11">
-        <v>429.7044367339032</v>
+        <v>0.5930964000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -925,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>205.678787854578</v>
+        <v>0.9075990000000002</v>
       </c>
       <c r="E12">
-        <v>205.678787854578</v>
+        <v>0.9075990000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>87.50361973382859</v>
+        <v>22.88487317849043</v>
       </c>
       <c r="E13">
-        <v>87.50361973382859</v>
+        <v>22.88487317849043</v>
       </c>
     </row>
   </sheetData>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8030.245391800086</v>
+        <v>7517.453042195278</v>
       </c>
       <c r="E4">
-        <v>8030.245391800086</v>
+        <v>7517.453042195278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2755.211344020926</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2755.211344020926</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>49168.42855544078</v>
+        <v>74117.18897753538</v>
       </c>
       <c r="E6">
-        <v>49168.42855544078</v>
+        <v>74117.18897753538</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>21572.50191459759</v>
+        <v>28983.95946096335</v>
       </c>
       <c r="E7">
-        <v>21572.50191459759</v>
+        <v>28983.95946096335</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7113.783598340528</v>
+        <v>6457.209360640278</v>
       </c>
       <c r="E8">
-        <v>7113.783598340528</v>
+        <v>6457.209360640278</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8609.67532914227</v>
+        <v>17387.20036101007</v>
       </c>
       <c r="E9">
-        <v>8609.67532914227</v>
+        <v>17387.20036101007</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1122,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-492.3170928436549</v>
+        <v>-475.7356369712065</v>
       </c>
       <c r="E10">
-        <v>-492.3170928436549</v>
+        <v>-475.7356369712065</v>
       </c>
     </row>
   </sheetData>
